--- a/data/trans_orig/iP30KDB2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51EB4E0-056C-44BD-B41F-F4305B510DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{906F8CD1-A3AB-4144-8921-6B0ABA0175BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2AC388B7-F74B-4B8D-81D9-81FA85E53D3B}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{0C37AAEA-78BE-4A6A-81E1-8653BE900D6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si toman frutos secos con regularidad (al menos 2-3 veces a la semana) en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,349 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -822,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4019D8A3-C234-407F-9707-6687AA047E20}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716CA462-027F-442D-AA85-AE2A67FFDE28}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -940,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D4" s="7">
-        <v>3026</v>
+        <v>55033</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -955,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="I4" s="7">
-        <v>5331</v>
+        <v>79997</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -970,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="N4" s="7">
-        <v>8356</v>
+        <v>135030</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -991,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D5" s="7">
-        <v>8371</v>
+        <v>59218</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1006,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I5" s="7">
-        <v>10668</v>
+        <v>56818</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1021,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="N5" s="7">
-        <v>19039</v>
+        <v>116036</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1042,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1057,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1095,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D7" s="7">
-        <v>70678</v>
+        <v>102915</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1110,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="I7" s="7">
-        <v>51947</v>
+        <v>156305</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1125,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>170</v>
+        <v>353</v>
       </c>
       <c r="N7" s="7">
-        <v>122625</v>
+        <v>259221</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1146,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>41770</v>
+        <v>83199</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1161,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="I8" s="7">
-        <v>49688</v>
+        <v>91215</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1176,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="N8" s="7">
-        <v>91458</v>
+        <v>174413</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1197,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1212,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1250,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7">
-        <v>156248</v>
+        <v>103736</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1265,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="I10" s="7">
-        <v>108442</v>
+        <v>89242</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1280,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>353</v>
+        <v>208</v>
       </c>
       <c r="N10" s="7">
-        <v>264690</v>
+        <v>192979</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1301,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7">
-        <v>86665</v>
+        <v>84513</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1316,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I11" s="7">
-        <v>79475</v>
+        <v>93847</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1331,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N11" s="7">
-        <v>166140</v>
+        <v>178360</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1352,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1367,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1382,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1405,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D13" s="7">
-        <v>83903</v>
+        <v>80705</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1420,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I13" s="7">
-        <v>82719</v>
+        <v>94275</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1435,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="N13" s="7">
-        <v>166622</v>
+        <v>174980</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1456,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D14" s="7">
-        <v>87216</v>
+        <v>83814</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1471,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7">
-        <v>83849</v>
+        <v>83034</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,7 +1435,7 @@
         <v>235</v>
       </c>
       <c r="N14" s="7">
-        <v>171065</v>
+        <v>166848</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1507,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1522,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1537,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1554,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>122</v>
+        <v>459</v>
       </c>
       <c r="D16" s="7">
-        <v>92576</v>
+        <v>342390</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>519</v>
+      </c>
+      <c r="I16" s="7">
+        <v>419820</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>110</v>
-      </c>
-      <c r="I16" s="7">
-        <v>84252</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>978</v>
+      </c>
+      <c r="N16" s="7">
+        <v>762210</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>232</v>
-      </c>
-      <c r="N16" s="7">
-        <v>176828</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,28 +1557,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>110</v>
+        <v>456</v>
       </c>
       <c r="D17" s="7">
-        <v>78880</v>
+        <v>310744</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>421</v>
+      </c>
+      <c r="I17" s="7">
+        <v>324913</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H17" s="7">
-        <v>125</v>
-      </c>
-      <c r="I17" s="7">
-        <v>84238</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>101</v>
@@ -1641,10 +1587,10 @@
         <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>235</v>
+        <v>877</v>
       </c>
       <c r="N17" s="7">
-        <v>163119</v>
+        <v>635657</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -1662,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1677,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1692,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1708,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>519</v>
-      </c>
-      <c r="D19" s="7">
-        <v>406430</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>459</v>
-      </c>
-      <c r="I19" s="7">
-        <v>332691</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>978</v>
-      </c>
-      <c r="N19" s="7">
-        <v>739121</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>421</v>
-      </c>
-      <c r="D20" s="7">
-        <v>302903</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>456</v>
-      </c>
-      <c r="I20" s="7">
-        <v>307918</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>877</v>
-      </c>
-      <c r="N20" s="7">
-        <v>610821</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
